--- a/biology/Botanique/Forêt_domaniale_de_Pafos/Forêt_domaniale_de_Pafos.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Pafos/Forêt_domaniale_de_Pafos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Pafos</t>
+          <t>Forêt_domaniale_de_Pafos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Paphos (grec moderne : δάσος Πάφου / dásos Páfou) est une forêt domaniale située dans les monts Troodos de Chypre avec une superficie de 70 000 hectares. C'est une réserve de chasse permanente depuis 1938. C'est une forêt de type méditerranéen avec à la fois des conifères comme le pin Brutia (Pinus brutia) et le cèdre de Chypre (Cedrus brevifolia) et des feuillus comme le chêne doré (Quercus alnifolia) et le platane oriental (Platanus orientalis).
